--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>357142.8571428572</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>427142.8571428572</v>
       </c>
     </row>
     <row r="34">
@@ -783,11 +783,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>427142.8571428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357142.8571428572</v>
+        <v>535714.2857142857</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>427142.8571428572</v>
+        <v>640714.2857142857</v>
       </c>
     </row>
     <row r="34">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>427142.8571428572</v>
+        <v>640714.2857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +445,485 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>622</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C2" t="n">
+        <v/>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-581</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v/>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -543,7 +1024,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -553,47 +1034,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>535714.2857142857</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1607142.857142857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -603,7 +1084,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -613,17 +1094,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -633,7 +1114,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -643,7 +1124,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -653,7 +1134,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,7 +1144,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -673,17 +1154,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -693,17 +1174,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -713,7 +1194,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -723,7 +1204,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -733,7 +1214,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -743,7 +1224,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -753,7 +1234,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -763,17 +1244,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>640714.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -783,11 +1264,41 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2122142.857142857</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>640714.2857142857</v>
+      <c r="B38" t="n">
+        <v>2122142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,35 +573,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>641</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Thanh nhã</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>200000</v>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1104,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1058,7 +1114,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315000</v>
+        <v>385000</v>
       </c>
     </row>
     <row r="15">
@@ -1068,7 +1124,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1607142.857142857</v>
+        <v>1964285.714285714</v>
       </c>
     </row>
     <row r="16">
@@ -1098,7 +1154,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>200000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1334,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2122142.857142857</v>
+        <v>3049285.714285715</v>
       </c>
     </row>
     <row r="37">
@@ -1298,7 +1354,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2122142.857142857</v>
+        <v>3049285.714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -416,14 +416,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>661</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yến</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -671,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,7 +1027,7 @@
         <v>3000000</v>
       </c>
       <c r="O2" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -902,37 +1065,71 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>2000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-581</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
       <c r="K3" t="n">
         <v>3000000</v>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v/>
+      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N3" t="n">
         <v>3000000</v>
       </c>
       <c r="O3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>3000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
@@ -946,15 +1143,74 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1104,7 +1360,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -1114,7 +1370,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>385000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="15">
@@ -1124,7 +1380,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1964285.714285714</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="16">
@@ -1134,7 +1390,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="17">
@@ -1194,7 +1450,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="23">
@@ -1334,7 +1590,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3049285.714285715</v>
+        <v>5685000</v>
       </c>
     </row>
     <row r="37">
@@ -1354,7 +1610,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3049285.714285715</v>
+        <v>5685000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,34 +792,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>687</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="L5" t="n">
         <v>7000000</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>700000</v>
       </c>
     </row>
@@ -1360,7 +1416,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -1370,7 +1426,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>735000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="15">
@@ -1380,7 +1436,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3750000</v>
+        <v>3928571.428571429</v>
       </c>
     </row>
     <row r="16">
@@ -1590,7 +1646,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5685000</v>
+        <v>5898571.428571429</v>
       </c>
     </row>
     <row r="37">
@@ -1610,7 +1666,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5685000</v>
+        <v>5898571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>770000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3928571.428571429</v>
+        <v>4107142.857142857</v>
       </c>
     </row>
     <row r="16">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5898571.428571429</v>
+        <v>6112142.857142857</v>
       </c>
     </row>
     <row r="37">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5898571.428571429</v>
+        <v>6112142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>805000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4107142.857142857</v>
+        <v>4285714.285714285</v>
       </c>
     </row>
     <row r="16">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6112142.857142857</v>
+        <v>6325714.285714285</v>
       </c>
     </row>
     <row r="37">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6112142.857142857</v>
+        <v>6325714.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,11 +796,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08-26-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -810,73 +810,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="I4" t="n">
         <v/>
       </c>
       <c r="J4" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="K4" t="n">
         <v>6000000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="M4" t="n">
         <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>687</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>700000</v>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1472,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1482,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>840000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1492,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4285714.285714285</v>
+        <v>4642857.142857143</v>
       </c>
     </row>
     <row r="16">
@@ -1466,7 +1522,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="19">
@@ -1646,7 +1702,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6325714.285714285</v>
+        <v>7052857.142857143</v>
       </c>
     </row>
     <row r="37">
@@ -1666,7 +1722,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6325714.285714285</v>
+        <v>7052857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-36 Đặng Ngọc Mai 8-2024.xlsx
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
